--- a/stats/passing-networks/nwsl-2016/wnyf_2016_pass_network.xlsx
+++ b/stats/passing-networks/nwsl-2016/wnyf_2016_pass_network.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="21820" windowHeight="13020" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1300" yWindow="1500" windowWidth="21820" windowHeight="13020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pass network" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="passes per 90 - passer" sheetId="4" r:id="rId4"/>
     <sheet name="passes per 90 - recipient" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -355,407 +355,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1061,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5238,7 +4838,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7856,7 +7456,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10479,7 +10079,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z26">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10681,8 +10281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13292,7 +12892,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z26">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
